--- a/SafetIbaseListsContent - UserInput Template.xlsx
+++ b/SafetIbaseListsContent - UserInput Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reb81664\Downloads\SafetIbase Installer\Add User Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mottmac-my.sharepoint.com/personal/patrick_hsu_mottmac_com/Documents/Safetibase/safetibase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9C2A7-3E3D-4E5A-A9D2-38147D47B970}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4AF9C2A7-3E3D-4E5A-A9D2-38147D47B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1DD5C87-1C28-4047-B749-373F06DE816F}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{E401D13F-67F3-490F-BB49-11AF6A102325}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E401D13F-67F3-490F-BB49-11AF6A102325}"/>
   </bookViews>
   <sheets>
     <sheet name="cdmCompanies" sheetId="1" r:id="rId1"/>
@@ -239,16 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -420,9 +417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -566,7 +563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,7 +752,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
@@ -766,7 +763,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
